--- a/biology/Botanique/Archaeosphaerodiniopsidaceae/Archaeosphaerodiniopsidaceae.xlsx
+++ b/biology/Botanique/Archaeosphaerodiniopsidaceae/Archaeosphaerodiniopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archaeosphaerodiniopsidaceae sont une famille d'algues Dinoflagellées de l’ordre des Peridiniales. 
-Son genre type, Archaeosphaerodiniopsis, a été décrit en 1943 par Leopoldo Rampi qui découvrit ce petit dinoflagellé en mer Ligure au large de San Remo[3].
+Son genre type, Archaeosphaerodiniopsis, a été décrit en 1943 par Leopoldo Rampi qui découvrit ce petit dinoflagellé en mer Ligure au large de San Remo.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Archaeosphaerodiniopsis; formé de archaeo, primitif, -sphaero-, « sphère ; globe » -din-, préfixe de « dinoflagellé » et -opsis, « semblable à », qui signifie littéralement « sorte de dinoflagellé sphérique primitive ».
 </t>
@@ -543,10 +557,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (9 janvier 2022)[1]
-Archaeosphaerodiniopsis, Rampi, 1943[3],[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (9 janvier 2022)
+Archaeosphaerodiniopsis, Rampi, 1943,</t>
         </is>
       </c>
     </row>
